--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>506598.3913517798</v>
+        <v>510313.9959154774</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714286.6128340091</v>
+        <v>714286.6128340089</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173.8223934894576</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>158.9522352994559</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>252.3364829231459</v>
@@ -725,7 +727,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>109.0305713435654</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>7.431982368242488</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>148.0265635717656</v>
+        <v>84.31882417064585</v>
       </c>
       <c r="S4" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>128.9874563185103</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,7 +901,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -941,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>131.2322724113947</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>133.4671371971241</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -975,7 +977,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>102.4802660394114</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -990,7 +992,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -1026,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>41.33210888672573</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1060,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>128.590085938789</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H7" t="n">
         <v>157.7789187685189</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>14.07758195298941</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>325.224086848979</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -1218,19 +1220,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>18.52723991028043</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>95.9550838187259</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>218.3273332069601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>128.590085938789</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
         <v>59.456666199969</v>
@@ -1588,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>145.8351811928814</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>325.224086848979</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
         <v>390.8378626949542</v>
@@ -1619,13 +1621,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9429466803539</v>
+        <v>10.70396802377531</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1683,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>89.49663856023973</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
@@ -1695,16 +1697,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>5.207896315578928</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G15" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1749,10 +1751,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1768,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.7420538716369</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
         <v>59.456666199969</v>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>165.2518882566948</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>186.5274934977503</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1889,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>188.1582211987005</v>
       </c>
       <c r="V17" t="n">
         <v>333.6094813630181</v>
@@ -1907,10 +1909,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>158.7034744856297</v>
+        <v>99.51704826962602</v>
       </c>
       <c r="V18" t="n">
         <v>226.1116663261494</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.31882417064588</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>242.420315677682</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2090,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>250.6578431917893</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>411.9429466803539</v>
@@ -2099,7 +2101,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I20" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>136.6998502133368</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -2169,16 +2171,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>31.74890147707598</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S21" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T21" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>174.3572224783882</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
-        <v>149.1449268053085</v>
+        <v>77.2673167009323</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>329.4930616586638</v>
+        <v>132.8608207697784</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>147.123963187315</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="24">
@@ -2406,16 +2408,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>31.74890147707598</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2451,13 +2453,13 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>226.4616797617367</v>
       </c>
       <c r="X24" t="n">
         <v>195.9378182409833</v>
@@ -2479,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>111.6201818252817</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>86.22604835954583</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>97.80086934491135</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>390.8378626949542</v>
@@ -2567,7 +2569,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>79.82974192480808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2640,19 +2642,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.09209246479631</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>268.6107013963112</v>
+        <v>117.6548529718308</v>
       </c>
       <c r="V28" t="n">
         <v>258.1279513971616</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>152.0601725718442</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.8094855920946</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>252.3364829231459</v>
@@ -2858,7 +2860,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D30" t="n">
         <v>137.45025063969</v>
@@ -2886,10 +2888,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>82.31895457934556</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2925,10 +2927,10 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>226.1116663261494</v>
+        <v>198.0168880161044</v>
       </c>
       <c r="W30" t="n">
         <v>238.9027100790231</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>125.2040305762914</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>147.8649255692296</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>214.9491908063581</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>187.0222133668674</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
@@ -3092,7 +3094,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,7 +3113,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>145.5577298436975</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.85229204714161</v>
       </c>
       <c r="S33" t="n">
-        <v>49.67353352483909</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T33" t="n">
         <v>186.7982527956746</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="U34" t="n">
-        <v>243.4438153256983</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>89.73190363910518</v>
+        <v>50.38386833878649</v>
       </c>
       <c r="S35" t="n">
         <v>185.3566856159496</v>
@@ -3323,13 +3325,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>218.422751200161</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3354,16 +3356,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
-        <v>31.74890147707598</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,19 +3392,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>226.1116663261494</v>
+        <v>174.3572224783882</v>
       </c>
       <c r="W36" t="n">
         <v>238.9027100790231</v>
@@ -3430,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>58.06332912686938</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.5841378245459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
@@ -3509,7 +3511,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>64.26793438746503</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>256.7990684973609</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
-        <v>10.09209246479631</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,10 +3641,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>238.9027100790231</v>
+        <v>196.9500880797384</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>125.2040305762914</v>
       </c>
       <c r="D40" t="n">
-        <v>58.06332912686938</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>78.59602910536552</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>378.1144210805207</v>
@@ -3749,10 +3751,10 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>258.6057347755847</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>160.0866360314548</v>
+        <v>103.4624205966087</v>
       </c>
       <c r="D42" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>98.93847887876893</v>
@@ -3882,10 +3884,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
-        <v>89.49663856023973</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="43">
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.0380364259622</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V43" t="n">
         <v>258.1279513971616</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>127.3655052380686</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>79.82974192480808</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="45">
@@ -4068,10 +4070,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -4101,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>10.41986281363169</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -4147,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.96816892577734</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>39.67076193273343</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423.9580147683919</v>
+        <v>708.2205427288878</v>
       </c>
       <c r="C2" t="n">
-        <v>42.02425610119923</v>
+        <v>708.2205427288878</v>
       </c>
       <c r="D2" t="n">
-        <v>42.02425610119923</v>
+        <v>708.2205427288878</v>
       </c>
       <c r="E2" t="n">
-        <v>42.02425610119923</v>
+        <v>708.2205427288878</v>
       </c>
       <c r="F2" t="n">
-        <v>42.02425610119923</v>
+        <v>708.2205427288878</v>
       </c>
       <c r="G2" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H2" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I2" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J2" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K2" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L2" t="n">
         <v>702.0485455037335</v>
@@ -4352,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T2" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U2" t="n">
-        <v>1344.101260631174</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V2" t="n">
-        <v>1344.101260631174</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="W2" t="n">
-        <v>981.5663304887748</v>
+        <v>1483.792538631556</v>
       </c>
       <c r="X2" t="n">
-        <v>599.5361900102682</v>
+        <v>1101.76239815305</v>
       </c>
       <c r="Y2" t="n">
-        <v>599.5361900102682</v>
+        <v>708.2205427288878</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>753.0168738400023</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C3" t="n">
-        <v>591.313201080957</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D3" t="n">
-        <v>452.4745640711691</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E3" t="n">
-        <v>305.4465541280403</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F3" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G3" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H3" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I3" t="n">
         <v>42.02425610119923</v>
@@ -4410,22 +4412,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1203796867518</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L3" t="n">
-        <v>554.9422248568675</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M3" t="n">
-        <v>1039.975578367094</v>
+        <v>1182.624153874836</v>
       </c>
       <c r="N3" t="n">
-        <v>1551.241224490216</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O3" t="n">
-        <v>1943.441175274367</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P3" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
@@ -4434,25 +4436,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="T3" t="n">
-        <v>1991.080914813936</v>
+        <v>1948.413318072701</v>
       </c>
       <c r="U3" t="n">
-        <v>1772.586122412246</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V3" t="n">
-        <v>1544.19049986058</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W3" t="n">
-        <v>1302.87463109389</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X3" t="n">
-        <v>1104.957642971684</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y3" t="n">
-        <v>912.4363166212631</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="4">
@@ -4507,13 +4509,13 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>386.0243786151989</v>
+        <v>488.9129718818328</v>
       </c>
       <c r="S4" t="n">
-        <v>172.3146160188864</v>
+        <v>275.2032092855204</v>
       </c>
       <c r="T4" t="n">
         <v>42.02425610119923</v>
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>423.9580147683919</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C5" t="n">
-        <v>42.02425610119923</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D5" t="n">
         <v>42.02425610119923</v>
@@ -4562,10 +4564,10 @@
         <v>42.02425610119923</v>
       </c>
       <c r="I5" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K5" t="n">
         <v>354.1631724187877</v>
@@ -4589,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S5" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T5" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U5" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V5" t="n">
-        <v>1211.543409710573</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W5" t="n">
-        <v>1211.543409710573</v>
+        <v>1966.397514961856</v>
       </c>
       <c r="X5" t="n">
-        <v>1211.543409710573</v>
+        <v>1584.36737448335</v>
       </c>
       <c r="Y5" t="n">
-        <v>818.001554286411</v>
+        <v>1190.825519059187</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>821.3991591499413</v>
+        <v>863.1487640860278</v>
       </c>
       <c r="C6" t="n">
-        <v>659.695486390896</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D6" t="n">
-        <v>520.8568493811081</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E6" t="n">
-        <v>373.8288394379794</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F6" t="n">
-        <v>239.1350413878537</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G6" t="n">
-        <v>110.4065414111382</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H6" t="n">
         <v>110.4065414111382</v>
@@ -4674,22 +4676,22 @@
         <v>2101.212805059961</v>
       </c>
       <c r="T6" t="n">
-        <v>2059.463200123875</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U6" t="n">
-        <v>1840.968407722185</v>
+        <v>1882.718012658271</v>
       </c>
       <c r="V6" t="n">
-        <v>1612.572785170519</v>
+        <v>1654.322390106605</v>
       </c>
       <c r="W6" t="n">
-        <v>1371.256916403829</v>
+        <v>1413.006521339915</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.339928281623</v>
+        <v>1215.08953321771</v>
       </c>
       <c r="Y6" t="n">
-        <v>980.8186019312022</v>
+        <v>1022.568206867289</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E7" t="n">
-        <v>405.6571843050742</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F7" t="n">
-        <v>405.6571843050742</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G7" t="n">
         <v>405.6571843050742</v>
@@ -4744,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y7" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C8" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D8" t="n">
-        <v>1772.703626424629</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E8" t="n">
-        <v>1377.917906530736</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F8" t="n">
-        <v>963.766715840906</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1531.33023600082</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1194.350961896761</v>
       </c>
       <c r="W8" t="n">
-        <v>2101.212805059961</v>
+        <v>831.8160317543623</v>
       </c>
       <c r="X8" t="n">
-        <v>2101.212805059961</v>
+        <v>449.7858912758556</v>
       </c>
       <c r="Y8" t="n">
-        <v>2101.212805059961</v>
+        <v>56.24403585169358</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4893,40 +4895,40 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N9" t="n">
-        <v>1641.34525599867</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P9" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J10" t="n">
         <v>42.02425610119923</v>
@@ -4981,31 +4983,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q10" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R10" t="n">
-        <v>574.0835013471317</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S10" t="n">
-        <v>574.0835013471317</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W10" t="n">
-        <v>555.3691175993737</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>324.1166534947494</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>102.0814946870265</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.02425610119923</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="C11" t="n">
-        <v>42.02425610119923</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="D11" t="n">
-        <v>42.02425610119923</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="E11" t="n">
-        <v>42.02425610119923</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="F11" t="n">
-        <v>42.02425610119923</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="G11" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H11" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I11" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J11" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K11" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L11" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M11" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N11" t="n">
         <v>1473.619070444537</v>
@@ -5081,10 +5083,10 @@
         <v>644.5870563847161</v>
       </c>
       <c r="X11" t="n">
-        <v>262.5569159062094</v>
+        <v>644.5870563847161</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.02425610119923</v>
+        <v>644.5870563847161</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5120,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K12" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L12" t="n">
-        <v>331.768955194494</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M12" t="n">
-        <v>816.8023087047204</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N12" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O12" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P12" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q12" t="n">
         <v>2101.212805059961</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.0814946870265</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="C13" t="n">
-        <v>102.0814946870265</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="D13" t="n">
-        <v>102.0814946870265</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="E13" t="n">
-        <v>102.0814946870265</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="F13" t="n">
-        <v>102.0814946870265</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="G13" t="n">
-        <v>102.0814946870265</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H13" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I13" t="n">
         <v>102.0814946870265</v>
@@ -5236,13 +5238,13 @@
         <v>535.5461600008207</v>
       </c>
       <c r="W13" t="n">
-        <v>249.3897585182198</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="X13" t="n">
-        <v>102.0814946870265</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.0814946870265</v>
+        <v>535.5461600008207</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2101.212805059961</v>
+        <v>1616.530979037796</v>
       </c>
       <c r="C14" t="n">
-        <v>2101.212805059961</v>
+        <v>1234.597220370603</v>
       </c>
       <c r="D14" t="n">
-        <v>1772.703626424629</v>
+        <v>861.7732555978264</v>
       </c>
       <c r="E14" t="n">
-        <v>1377.917906530736</v>
+        <v>466.9875357039332</v>
       </c>
       <c r="F14" t="n">
-        <v>963.766715840906</v>
+        <v>52.83634501410359</v>
       </c>
       <c r="G14" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H14" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I14" t="n">
         <v>42.02425610119923</v>
@@ -5300,28 +5302,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R14" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S14" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T14" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U14" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V14" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W14" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X14" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y14" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>461.879904359699</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C15" t="n">
-        <v>461.879904359699</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D15" t="n">
-        <v>323.041267349911</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E15" t="n">
-        <v>176.0132574067823</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F15" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G15" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H15" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I15" t="n">
         <v>42.02425610119923</v>
@@ -5367,13 +5369,13 @@
         <v>1182.624153874836</v>
       </c>
       <c r="N15" t="n">
-        <v>1249.145305214519</v>
+        <v>1693.889799997958</v>
       </c>
       <c r="O15" t="n">
-        <v>1641.34525599867</v>
+        <v>2086.089750782109</v>
       </c>
       <c r="P15" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q15" t="n">
         <v>2101.212805059961</v>
@@ -5397,10 +5399,10 @@
         <v>1011.737661613587</v>
       </c>
       <c r="X15" t="n">
-        <v>813.8206734913811</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="Y15" t="n">
-        <v>621.2993471409599</v>
+        <v>1011.737661613587</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>407.162402097945</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C16" t="n">
-        <v>407.162402097945</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D16" t="n">
-        <v>254.0905089257077</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="E16" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="F16" t="n">
-        <v>102.0814946870265</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="G16" t="n">
-        <v>102.0814946870265</v>
+        <v>405.6571843050742</v>
       </c>
       <c r="H16" t="n">
-        <v>102.0814946870265</v>
+        <v>246.284539084348</v>
       </c>
       <c r="I16" t="n">
         <v>102.0814946870265</v>
@@ -5476,10 +5478,10 @@
         <v>574.0835013471317</v>
       </c>
       <c r="X16" t="n">
-        <v>407.162402097945</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y16" t="n">
-        <v>407.162402097945</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>644.5870563847161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C17" t="n">
-        <v>644.5870563847161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D17" t="n">
-        <v>644.5870563847161</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E17" t="n">
-        <v>456.1754467910289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F17" t="n">
         <v>42.02425610119923</v>
@@ -5513,19 +5515,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J17" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K17" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L17" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M17" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N17" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O17" t="n">
         <v>1778.623654917371</v>
@@ -5537,28 +5539,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S17" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T17" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U17" t="n">
-        <v>1344.101260631174</v>
+        <v>1911.153995768345</v>
       </c>
       <c r="V17" t="n">
-        <v>1007.121986527115</v>
+        <v>1574.174721664286</v>
       </c>
       <c r="W17" t="n">
-        <v>644.5870563847161</v>
+        <v>1211.639791521887</v>
       </c>
       <c r="X17" t="n">
-        <v>644.5870563847161</v>
+        <v>829.6096510433804</v>
       </c>
       <c r="Y17" t="n">
-        <v>644.5870563847161</v>
+        <v>436.0677956192184</v>
       </c>
     </row>
     <row r="18">
@@ -5598,10 +5600,10 @@
         <v>271.5148086613879</v>
       </c>
       <c r="L18" t="n">
-        <v>637.3366538315036</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="M18" t="n">
-        <v>737.8796590913968</v>
+        <v>756.5481621716143</v>
       </c>
       <c r="N18" t="n">
         <v>1249.145305214519</v>
@@ -5616,13 +5618,13 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S18" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T18" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="U18" t="n">
         <v>1940.906265175487</v>
@@ -5698,25 +5700,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S19" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T19" t="n">
-        <v>127.1947855664981</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U19" t="n">
-        <v>127.1947855664981</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V19" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W19" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X19" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.1947855664981</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1216.956456438673</v>
+        <v>790.949517049702</v>
       </c>
       <c r="C20" t="n">
-        <v>1216.956456438673</v>
+        <v>790.949517049702</v>
       </c>
       <c r="D20" t="n">
-        <v>1216.956456438673</v>
+        <v>790.949517049702</v>
       </c>
       <c r="E20" t="n">
-        <v>1216.956456438673</v>
+        <v>790.949517049702</v>
       </c>
       <c r="F20" t="n">
-        <v>963.766715840906</v>
+        <v>790.949517049702</v>
       </c>
       <c r="G20" t="n">
-        <v>547.662729295094</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H20" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I20" t="n">
         <v>42.02425610119923</v>
@@ -5777,25 +5779,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S20" t="n">
-        <v>1823.345543186168</v>
+        <v>1872.493861774666</v>
       </c>
       <c r="T20" t="n">
-        <v>1598.98659691718</v>
+        <v>1872.493861774666</v>
       </c>
       <c r="U20" t="n">
-        <v>1598.98659691718</v>
+        <v>1872.493861774666</v>
       </c>
       <c r="V20" t="n">
-        <v>1598.98659691718</v>
+        <v>1535.514587670608</v>
       </c>
       <c r="W20" t="n">
-        <v>1598.98659691718</v>
+        <v>1172.979657528209</v>
       </c>
       <c r="X20" t="n">
-        <v>1216.956456438673</v>
+        <v>790.949517049702</v>
       </c>
       <c r="Y20" t="n">
-        <v>1216.956456438673</v>
+        <v>790.949517049702</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>521.6641732647531</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C21" t="n">
-        <v>359.9605005057078</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D21" t="n">
-        <v>221.1218634959199</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E21" t="n">
-        <v>74.09385355279113</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F21" t="n">
-        <v>74.09385355279113</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G21" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H21" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I21" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J21" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K21" t="n">
-        <v>42.02425610119923</v>
+        <v>189.1203796867518</v>
       </c>
       <c r="L21" t="n">
-        <v>407.8461012713149</v>
+        <v>554.9422248568675</v>
       </c>
       <c r="M21" t="n">
-        <v>892.8794547815413</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N21" t="n">
-        <v>1404.145100904663</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O21" t="n">
-        <v>1796.345051688814</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P21" t="n">
-        <v>2098.440970964512</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R21" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S21" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T21" t="n">
-        <v>1759.728214238687</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U21" t="n">
-        <v>1541.233421836997</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="V21" t="n">
-        <v>1312.837799285331</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W21" t="n">
-        <v>1071.521930518641</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X21" t="n">
-        <v>873.6049423964351</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y21" t="n">
-        <v>681.083616046014</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1728.526205034755</v>
+        <v>1873.643229026933</v>
       </c>
       <c r="C22" t="n">
-        <v>1728.526205034755</v>
+        <v>1873.643229026933</v>
       </c>
       <c r="D22" t="n">
-        <v>1728.526205034755</v>
+        <v>1873.643229026933</v>
       </c>
       <c r="E22" t="n">
-        <v>1728.526205034755</v>
+        <v>1721.634214788252</v>
       </c>
       <c r="F22" t="n">
-        <v>1728.526205034755</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G22" t="n">
-        <v>1728.526205034755</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H22" t="n">
         <v>1569.153559814029</v>
@@ -5932,28 +5934,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R22" t="n">
-        <v>2101.212805059961</v>
+        <v>1951.691023674339</v>
       </c>
       <c r="S22" t="n">
-        <v>1950.561363842478</v>
+        <v>1873.643229026933</v>
       </c>
       <c r="T22" t="n">
-        <v>1950.561363842478</v>
+        <v>1873.643229026933</v>
       </c>
       <c r="U22" t="n">
-        <v>1950.561363842478</v>
+        <v>1873.643229026933</v>
       </c>
       <c r="V22" t="n">
-        <v>1950.561363842478</v>
+        <v>1873.643229026933</v>
       </c>
       <c r="W22" t="n">
-        <v>1950.561363842478</v>
+        <v>1873.643229026933</v>
       </c>
       <c r="X22" t="n">
-        <v>1950.561363842478</v>
+        <v>1873.643229026933</v>
       </c>
       <c r="Y22" t="n">
-        <v>1728.526205034755</v>
+        <v>1873.643229026933</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1558.559201716371</v>
+        <v>1345.1360194934</v>
       </c>
       <c r="C23" t="n">
-        <v>1558.559201716371</v>
+        <v>963.2022608262077</v>
       </c>
       <c r="D23" t="n">
-        <v>1185.735236943595</v>
+        <v>590.3782960534313</v>
       </c>
       <c r="E23" t="n">
-        <v>790.949517049702</v>
+        <v>590.3782960534313</v>
       </c>
       <c r="F23" t="n">
-        <v>790.949517049702</v>
+        <v>176.2271053636017</v>
       </c>
       <c r="G23" t="n">
-        <v>374.84553050389</v>
+        <v>176.2271053636017</v>
       </c>
       <c r="H23" t="n">
         <v>42.02425610119923</v>
@@ -5990,16 +5992,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K23" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L23" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M23" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N23" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O23" t="n">
         <v>1778.623654917371</v>
@@ -6020,19 +6022,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U23" t="n">
-        <v>1952.602741234391</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V23" t="n">
-        <v>1952.602741234391</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W23" t="n">
-        <v>1952.602741234391</v>
+        <v>1738.677874917562</v>
       </c>
       <c r="X23" t="n">
-        <v>1952.602741234391</v>
+        <v>1738.677874917562</v>
       </c>
       <c r="Y23" t="n">
-        <v>1952.602741234391</v>
+        <v>1345.1360194934</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>521.6641732647531</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C24" t="n">
-        <v>359.9605005057078</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D24" t="n">
-        <v>221.1218634959199</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E24" t="n">
-        <v>74.09385355279113</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F24" t="n">
-        <v>74.09385355279113</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G24" t="n">
-        <v>74.09385355279113</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H24" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I24" t="n">
         <v>42.02425610119923</v>
@@ -6069,19 +6071,19 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K24" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L24" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M24" t="n">
-        <v>1182.624153874836</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N24" t="n">
-        <v>1693.889799997958</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O24" t="n">
-        <v>1943.441175274367</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P24" t="n">
         <v>1943.441175274367</v>
@@ -6090,28 +6092,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R24" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S24" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T24" t="n">
-        <v>1759.728214238687</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U24" t="n">
-        <v>1541.233421836997</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="V24" t="n">
-        <v>1312.837799285331</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="W24" t="n">
-        <v>1071.521930518641</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X24" t="n">
-        <v>873.6049423964351</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y24" t="n">
-        <v>681.083616046014</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.7719145105746</v>
+        <v>129.121274646195</v>
       </c>
       <c r="C25" t="n">
-        <v>154.7719145105746</v>
+        <v>129.121274646195</v>
       </c>
       <c r="D25" t="n">
-        <v>42.02425610119923</v>
+        <v>129.121274646195</v>
       </c>
       <c r="E25" t="n">
-        <v>42.02425610119923</v>
+        <v>129.121274646195</v>
       </c>
       <c r="F25" t="n">
         <v>42.02425610119923</v>
@@ -6166,31 +6168,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q25" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R25" t="n">
-        <v>386.0243786151989</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S25" t="n">
-        <v>386.0243786151989</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="T25" t="n">
-        <v>386.0243786151989</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="U25" t="n">
-        <v>386.0243786151989</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="V25" t="n">
-        <v>386.0243786151989</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="W25" t="n">
-        <v>386.0243786151989</v>
+        <v>360.3737387508193</v>
       </c>
       <c r="X25" t="n">
-        <v>154.7719145105746</v>
+        <v>129.121274646195</v>
       </c>
       <c r="Y25" t="n">
-        <v>154.7719145105746</v>
+        <v>129.121274646195</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1738.677874917562</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="C26" t="n">
-        <v>1639.88911800351</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="D26" t="n">
-        <v>1267.065153230734</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E26" t="n">
-        <v>872.2794333368408</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F26" t="n">
-        <v>458.1282426470112</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G26" t="n">
         <v>42.02425610119923</v>
@@ -6248,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2101.212805059961</v>
+        <v>2020.57670210561</v>
       </c>
       <c r="S26" t="n">
-        <v>2101.212805059961</v>
+        <v>2020.57670210561</v>
       </c>
       <c r="T26" t="n">
-        <v>2101.212805059961</v>
+        <v>2020.57670210561</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.212805059961</v>
+        <v>2020.57670210561</v>
       </c>
       <c r="V26" t="n">
-        <v>2101.212805059961</v>
+        <v>2020.57670210561</v>
       </c>
       <c r="W26" t="n">
-        <v>1738.677874917562</v>
+        <v>2020.57670210561</v>
       </c>
       <c r="X26" t="n">
-        <v>1738.677874917562</v>
+        <v>1638.546561627103</v>
       </c>
       <c r="Y26" t="n">
-        <v>1738.677874917562</v>
+        <v>1245.004706202941</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>461.879904359699</v>
+        <v>863.1487640860278</v>
       </c>
       <c r="C27" t="n">
-        <v>300.1762316006536</v>
+        <v>701.4450913269825</v>
       </c>
       <c r="D27" t="n">
-        <v>161.3375945908657</v>
+        <v>562.6064543171946</v>
       </c>
       <c r="E27" t="n">
-        <v>42.02425610119923</v>
+        <v>415.5784443740658</v>
       </c>
       <c r="F27" t="n">
-        <v>42.02425610119923</v>
+        <v>280.8846463239402</v>
       </c>
       <c r="G27" t="n">
-        <v>42.02425610119923</v>
+        <v>152.1561463472247</v>
       </c>
       <c r="H27" t="n">
-        <v>42.02425610119923</v>
+        <v>52.21828889392278</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L27" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M27" t="n">
         <v>895.6512888769911</v>
@@ -6327,28 +6329,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R27" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S27" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T27" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U27" t="n">
-        <v>1481.449152931943</v>
+        <v>1882.718012658271</v>
       </c>
       <c r="V27" t="n">
-        <v>1253.053530380276</v>
+        <v>1654.322390106605</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.737661613587</v>
+        <v>1413.006521339915</v>
       </c>
       <c r="X27" t="n">
-        <v>813.8206734913811</v>
+        <v>1215.08953321771</v>
       </c>
       <c r="Y27" t="n">
-        <v>621.2993471409599</v>
+        <v>1022.568206867289</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1569.153559814029</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="C28" t="n">
-        <v>1569.153559814029</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="D28" t="n">
-        <v>1569.153559814029</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="E28" t="n">
-        <v>1569.153559814029</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="F28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J28" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K28" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L28" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M28" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N28" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O28" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T28" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U28" t="n">
-        <v>1829.888864255606</v>
+        <v>455.2402155169995</v>
       </c>
       <c r="V28" t="n">
-        <v>1569.153559814029</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="W28" t="n">
-        <v>1569.153559814029</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="X28" t="n">
-        <v>1569.153559814029</v>
+        <v>194.5049110754221</v>
       </c>
       <c r="Y28" t="n">
-        <v>1569.153559814029</v>
+        <v>194.5049110754221</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42.02425610119923</v>
+        <v>577.5541486793456</v>
       </c>
       <c r="C29" t="n">
-        <v>42.02425610119923</v>
+        <v>195.620390012153</v>
       </c>
       <c r="D29" t="n">
-        <v>42.02425610119923</v>
+        <v>195.620390012153</v>
       </c>
       <c r="E29" t="n">
-        <v>42.02425610119923</v>
+        <v>195.620390012153</v>
       </c>
       <c r="F29" t="n">
-        <v>42.02425610119923</v>
+        <v>195.620390012153</v>
       </c>
       <c r="G29" t="n">
-        <v>42.02425610119923</v>
+        <v>195.620390012153</v>
       </c>
       <c r="H29" t="n">
         <v>42.02425610119923</v>
@@ -6479,34 +6481,34 @@
         <v>1778.623654917371</v>
       </c>
       <c r="P29" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q29" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R29" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S29" t="n">
-        <v>1996.35473880532</v>
+        <v>1913.983829690316</v>
       </c>
       <c r="T29" t="n">
-        <v>1771.995792536331</v>
+        <v>1913.983829690316</v>
       </c>
       <c r="U29" t="n">
-        <v>1517.110456250326</v>
+        <v>1659.09849340431</v>
       </c>
       <c r="V29" t="n">
-        <v>1180.131182146267</v>
+        <v>1322.119219300251</v>
       </c>
       <c r="W29" t="n">
-        <v>817.5962520038679</v>
+        <v>959.5842891578523</v>
       </c>
       <c r="X29" t="n">
-        <v>435.5661115253612</v>
+        <v>577.5541486793456</v>
       </c>
       <c r="Y29" t="n">
-        <v>42.02425610119923</v>
+        <v>577.5541486793456</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>674.4636602520131</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C30" t="n">
-        <v>674.4636602520131</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D30" t="n">
-        <v>535.6250232422252</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E30" t="n">
-        <v>388.5970132990964</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F30" t="n">
-        <v>253.9032152489708</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G30" t="n">
-        <v>125.1747152722554</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H30" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L30" t="n">
-        <v>252.8463055811703</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M30" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N30" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O30" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P30" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
@@ -6573,19 +6575,19 @@
         <v>1912.527701225946</v>
       </c>
       <c r="U30" t="n">
-        <v>1694.032908824257</v>
+        <v>1912.527701225946</v>
       </c>
       <c r="V30" t="n">
-        <v>1465.63728627259</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W30" t="n">
-        <v>1224.321417505901</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X30" t="n">
-        <v>1026.404429383695</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y30" t="n">
-        <v>833.8831030332741</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.4929738550289</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C31" t="n">
         <v>42.02425610119923</v>
@@ -6643,28 +6645,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R31" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S31" t="n">
-        <v>574.0835013471317</v>
+        <v>275.2032092855204</v>
       </c>
       <c r="T31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X31" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y31" t="n">
-        <v>352.0483425394087</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>818.7437346622851</v>
+        <v>764.7831240489911</v>
       </c>
       <c r="C32" t="n">
-        <v>436.8099759950924</v>
+        <v>764.7831240489911</v>
       </c>
       <c r="D32" t="n">
-        <v>436.8099759950924</v>
+        <v>764.7831240489911</v>
       </c>
       <c r="E32" t="n">
-        <v>42.02425610119923</v>
+        <v>764.7831240489911</v>
       </c>
       <c r="F32" t="n">
-        <v>42.02425610119923</v>
+        <v>764.7831240489911</v>
       </c>
       <c r="G32" t="n">
-        <v>42.02425610119923</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H32" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924033</v>
       </c>
       <c r="I32" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J32" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K32" t="n">
         <v>354.1631724187877</v>
@@ -6731,19 +6733,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U32" t="n">
-        <v>1912.301478426762</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V32" t="n">
-        <v>1575.322204322703</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="W32" t="n">
-        <v>1212.787274180304</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="X32" t="n">
-        <v>1212.787274180304</v>
+        <v>764.7831240489911</v>
       </c>
       <c r="Y32" t="n">
-        <v>1212.787274180304</v>
+        <v>764.7831240489911</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>624.2883738632869</v>
+        <v>485.449736853499</v>
       </c>
       <c r="C33" t="n">
-        <v>462.5847011042416</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="D33" t="n">
         <v>323.7460640944537</v>
@@ -6780,49 +6782,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K33" t="n">
-        <v>44.796090196649</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L33" t="n">
-        <v>410.6179353667646</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M33" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N33" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O33" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P33" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q33" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2101.212805059961</v>
+        <v>2064.998368648707</v>
       </c>
       <c r="S33" t="n">
-        <v>2051.037518671235</v>
+        <v>1912.198881661447</v>
       </c>
       <c r="T33" t="n">
-        <v>1862.35241483722</v>
+        <v>1723.513777827432</v>
       </c>
       <c r="U33" t="n">
-        <v>1643.85762243553</v>
+        <v>1505.018985425743</v>
       </c>
       <c r="V33" t="n">
-        <v>1415.461999883864</v>
+        <v>1276.623362874077</v>
       </c>
       <c r="W33" t="n">
-        <v>1174.146131117174</v>
+        <v>1035.307494107386</v>
       </c>
       <c r="X33" t="n">
-        <v>976.229142994969</v>
+        <v>837.390505985181</v>
       </c>
       <c r="Y33" t="n">
-        <v>783.7078166445478</v>
+        <v>644.8691796347598</v>
       </c>
     </row>
     <row r="34">
@@ -6880,19 +6882,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S34" t="n">
-        <v>574.0835013471317</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="T34" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U34" t="n">
-        <v>328.1806575838001</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V34" t="n">
-        <v>328.1806575838001</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W34" t="n">
         <v>42.02425610119923</v>
@@ -6911,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>423.9580147683919</v>
+        <v>1001.816610355009</v>
       </c>
       <c r="C35" t="n">
-        <v>42.02425610119923</v>
+        <v>1001.816610355009</v>
       </c>
       <c r="D35" t="n">
-        <v>42.02425610119923</v>
+        <v>628.992645582233</v>
       </c>
       <c r="E35" t="n">
-        <v>42.02425610119923</v>
+        <v>628.992645582233</v>
       </c>
       <c r="F35" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924033</v>
       </c>
       <c r="G35" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924033</v>
       </c>
       <c r="H35" t="n">
-        <v>42.02425610119923</v>
+        <v>214.8414548924033</v>
       </c>
       <c r="I35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J35" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K35" t="n">
         <v>354.1631724187877</v>
@@ -6959,28 +6961,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R35" t="n">
-        <v>2010.574518555815</v>
+        <v>2050.320008758157</v>
       </c>
       <c r="S35" t="n">
-        <v>1823.345543186168</v>
+        <v>1863.091033388511</v>
       </c>
       <c r="T35" t="n">
-        <v>1598.98659691718</v>
+        <v>1638.732087119522</v>
       </c>
       <c r="U35" t="n">
-        <v>1344.101260631174</v>
+        <v>1383.846750833516</v>
       </c>
       <c r="V35" t="n">
-        <v>1007.121986527115</v>
+        <v>1383.846750833516</v>
       </c>
       <c r="W35" t="n">
-        <v>644.5870563847161</v>
+        <v>1383.846750833516</v>
       </c>
       <c r="X35" t="n">
-        <v>423.9580147683919</v>
+        <v>1001.816610355009</v>
       </c>
       <c r="Y35" t="n">
-        <v>423.9580147683919</v>
+        <v>1001.816610355009</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>521.6641732647531</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C36" t="n">
-        <v>359.9605005057078</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D36" t="n">
-        <v>221.1218634959199</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E36" t="n">
-        <v>74.09385355279113</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F36" t="n">
-        <v>42.02425610119923</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G36" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H36" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I36" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L36" t="n">
-        <v>252.8463055811703</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M36" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N36" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O36" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P36" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q36" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R36" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S36" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T36" t="n">
-        <v>1759.728214238687</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U36" t="n">
-        <v>1541.233421836997</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="V36" t="n">
-        <v>1312.837799285331</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W36" t="n">
-        <v>1071.521930518641</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X36" t="n">
-        <v>873.6049423964351</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y36" t="n">
-        <v>681.083616046014</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="C37" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="D37" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="E37" t="n">
-        <v>42.02425610119923</v>
+        <v>1949.20379082128</v>
       </c>
       <c r="F37" t="n">
-        <v>42.02425610119923</v>
+        <v>1796.723135847057</v>
       </c>
       <c r="G37" t="n">
-        <v>42.02425610119923</v>
+        <v>1627.803387214907</v>
       </c>
       <c r="H37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J37" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K37" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L37" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M37" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N37" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O37" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q37" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R37" t="n">
-        <v>424.5617199615099</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S37" t="n">
-        <v>424.5617199615099</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T37" t="n">
-        <v>424.5617199615099</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U37" t="n">
-        <v>424.5617199615099</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V37" t="n">
-        <v>163.8264155199325</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W37" t="n">
-        <v>163.8264155199325</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X37" t="n">
-        <v>163.8264155199325</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.02425610119923</v>
+        <v>2101.212805059961</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1429.302003668149</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="C38" t="n">
-        <v>1047.368245000957</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D38" t="n">
-        <v>674.5442802281802</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E38" t="n">
-        <v>279.7585603342871</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F38" t="n">
-        <v>279.7585603342871</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="G38" t="n">
-        <v>279.7585603342871</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="H38" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J38" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K38" t="n">
         <v>354.1631724187877</v>
@@ -7199,25 +7201,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S38" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T38" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U38" t="n">
-        <v>1823.345543186168</v>
+        <v>1755.689182269809</v>
       </c>
       <c r="V38" t="n">
-        <v>1823.345543186168</v>
+        <v>1418.70990816575</v>
       </c>
       <c r="W38" t="n">
-        <v>1823.345543186168</v>
+        <v>1056.174978023351</v>
       </c>
       <c r="X38" t="n">
-        <v>1823.345543186168</v>
+        <v>796.7819795411683</v>
       </c>
       <c r="Y38" t="n">
-        <v>1823.345543186168</v>
+        <v>796.7819795411683</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>863.1487640860278</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C39" t="n">
-        <v>701.4450913269825</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D39" t="n">
-        <v>562.6064543171946</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E39" t="n">
-        <v>415.5784443740658</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F39" t="n">
-        <v>280.8846463239402</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G39" t="n">
-        <v>152.1561463472247</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H39" t="n">
-        <v>52.21828889392278</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I39" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L39" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M39" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N39" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O39" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P39" t="n">
         <v>2101.212805059961</v>
@@ -7275,28 +7277,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R39" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S39" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T39" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="U39" t="n">
-        <v>1882.718012658271</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="V39" t="n">
-        <v>1654.322390106605</v>
+        <v>1670.134256765957</v>
       </c>
       <c r="W39" t="n">
-        <v>1413.006521339915</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X39" t="n">
-        <v>1215.08953321771</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y39" t="n">
-        <v>1022.568206867289</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2101.212805059961</v>
+        <v>168.4929738550289</v>
       </c>
       <c r="C40" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D40" t="n">
-        <v>2042.562977659083</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E40" t="n">
-        <v>1890.553963420402</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F40" t="n">
-        <v>1738.073308446179</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>352.0483425394087</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2021.822876670703</v>
+        <v>1191.567699435062</v>
       </c>
       <c r="C41" t="n">
-        <v>1639.88911800351</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.065153230734</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="E41" t="n">
-        <v>872.2794333368408</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F41" t="n">
-        <v>458.1282426470112</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G41" t="n">
         <v>42.02425610119923</v>
@@ -7427,10 +7429,10 @@
         <v>1778.623654917371</v>
       </c>
       <c r="P41" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q41" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R41" t="n">
         <v>2101.212805059961</v>
@@ -7442,19 +7444,19 @@
         <v>2101.212805059961</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1846.327468773955</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="X41" t="n">
-        <v>2101.212805059961</v>
+        <v>1585.109554859223</v>
       </c>
       <c r="Y41" t="n">
-        <v>2101.212805059961</v>
+        <v>1191.567699435062</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>921.3370166032433</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C42" t="n">
-        <v>759.6333438441981</v>
+        <v>357.3724088075689</v>
       </c>
       <c r="D42" t="n">
-        <v>620.7947068344101</v>
+        <v>357.3724088075689</v>
       </c>
       <c r="E42" t="n">
-        <v>473.7666968912813</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="F42" t="n">
-        <v>339.0728988411556</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="G42" t="n">
         <v>210.3443988644402</v>
@@ -7488,25 +7490,25 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K42" t="n">
-        <v>331.768955194494</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L42" t="n">
-        <v>331.768955194494</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M42" t="n">
-        <v>816.8023087047204</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N42" t="n">
-        <v>1328.067954827843</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O42" t="n">
-        <v>1720.267905611993</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P42" t="n">
-        <v>2022.363824887691</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q42" t="n">
         <v>2101.212805059961</v>
@@ -7530,10 +7532,10 @@
         <v>1011.737661613587</v>
       </c>
       <c r="X42" t="n">
-        <v>921.3370166032433</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y42" t="n">
-        <v>921.3370166032433</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H43" t="n">
         <v>42.02425610119923</v>
@@ -7594,25 +7596,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>360.3737387508193</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>360.3737387508193</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.63843430924186</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1755.689182269809</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="C44" t="n">
-        <v>1373.755423602616</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="D44" t="n">
-        <v>1000.93145882984</v>
+        <v>850.9611666849221</v>
       </c>
       <c r="E44" t="n">
-        <v>1000.93145882984</v>
+        <v>456.1754467910289</v>
       </c>
       <c r="F44" t="n">
-        <v>586.7802681400099</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G44" t="n">
-        <v>170.6762815941979</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H44" t="n">
-        <v>170.6762815941979</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I44" t="n">
         <v>42.02425610119923</v>
@@ -7649,16 +7651,16 @@
         <v>114.0228003740049</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L44" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M44" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N44" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O44" t="n">
         <v>1778.623654917371</v>
@@ -7670,28 +7672,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R44" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S44" t="n">
-        <v>2010.574518555815</v>
+        <v>2020.57670210561</v>
       </c>
       <c r="T44" t="n">
-        <v>2010.574518555815</v>
+        <v>2020.57670210561</v>
       </c>
       <c r="U44" t="n">
-        <v>1755.689182269809</v>
+        <v>2020.57670210561</v>
       </c>
       <c r="V44" t="n">
-        <v>1755.689182269809</v>
+        <v>2020.57670210561</v>
       </c>
       <c r="W44" t="n">
-        <v>1755.689182269809</v>
+        <v>2020.57670210561</v>
       </c>
       <c r="X44" t="n">
-        <v>1755.689182269809</v>
+        <v>1638.546561627103</v>
       </c>
       <c r="Y44" t="n">
-        <v>1755.689182269809</v>
+        <v>1245.004706202941</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>921.3370166032433</v>
+        <v>692.6706591732259</v>
       </c>
       <c r="C45" t="n">
-        <v>759.6333438441981</v>
+        <v>530.9669864141806</v>
       </c>
       <c r="D45" t="n">
-        <v>620.7947068344101</v>
+        <v>392.1283494043927</v>
       </c>
       <c r="E45" t="n">
-        <v>473.7666968912813</v>
+        <v>245.1003394612639</v>
       </c>
       <c r="F45" t="n">
-        <v>339.0728988411556</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="G45" t="n">
-        <v>210.3443988644402</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H45" t="n">
         <v>110.4065414111382</v>
@@ -7728,49 +7730,49 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2784026343054</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L45" t="n">
-        <v>468.100247804421</v>
+        <v>697.5908003646097</v>
       </c>
       <c r="M45" t="n">
-        <v>953.1336013146474</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N45" t="n">
-        <v>1464.39924743777</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O45" t="n">
-        <v>1856.59919822192</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P45" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q45" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R45" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S45" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T45" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U45" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V45" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W45" t="n">
-        <v>1471.194773857131</v>
+        <v>1242.528416427113</v>
       </c>
       <c r="X45" t="n">
-        <v>1273.277785734925</v>
+        <v>1044.611428304908</v>
       </c>
       <c r="Y45" t="n">
-        <v>1080.756459384504</v>
+        <v>852.0901019544867</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G46" t="n">
-        <v>1932.293056427811</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H46" t="n">
-        <v>1772.920411207085</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I46" t="n">
-        <v>1628.717366809764</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J46" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K46" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L46" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M46" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N46" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O46" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T46" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U46" t="n">
-        <v>2101.212805059961</v>
+        <v>534.0120246474009</v>
       </c>
       <c r="V46" t="n">
-        <v>2101.212805059961</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="W46" t="n">
-        <v>2101.212805059961</v>
+        <v>273.2767202058235</v>
       </c>
       <c r="X46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y46" t="n">
-        <v>2101.212805059961</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K2" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L2" t="n">
-        <v>542.9595789155851</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M2" t="n">
         <v>584.3675935406823</v>
@@ -8058,7 +8060,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>199.7153379065116</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
@@ -8070,13 +8072,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O3" t="n">
-        <v>512.0210150597484</v>
+        <v>222.1494342538443</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8234,7 +8236,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8471,7 +8473,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q8" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8541,16 +8543,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N9" t="n">
-        <v>570.0697896776412</v>
+        <v>333.2735058407155</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q9" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K11" t="n">
         <v>421.3890363425141</v>
@@ -8699,7 +8701,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>568.5510017355789</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
@@ -8766,19 +8768,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>376.4077763449607</v>
       </c>
       <c r="N12" t="n">
-        <v>543.4252385523532</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8789,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9015,16 +9017,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>124.1300184260142</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9246,13 +9248,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M18" t="n">
-        <v>217.0424937332492</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>604.2880128282179</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9419,7 +9421,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>111.9961691666667</v>
+        <v>199.7153379065116</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9495,10 +9497,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q21" t="n">
-        <v>116.5350238645387</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9717,7 +9719,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9729,10 +9731,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
-        <v>367.9315448499079</v>
+        <v>294.5927905918182</v>
       </c>
       <c r="P24" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9893,7 +9895,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578759</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9951,16 +9953,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>547.3536410187814</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -10188,13 +10190,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L30" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10209,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10428,10 +10430,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K33" t="n">
-        <v>114.7960015863129</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
@@ -10446,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10662,13 +10664,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L36" t="n">
-        <v>264.6642244265669</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
@@ -10683,7 +10685,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10899,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10917,7 +10919,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
         <v>113.7351914448925</v>
@@ -11075,7 +11077,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229271</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
@@ -11136,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>112.5754335711478</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11154,10 +11156,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q42" t="n">
-        <v>193.3806259623375</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11297,7 +11299,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425138</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
@@ -11376,13 +11378,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>111.9961691666667</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>156.1797194573845</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11391,10 +11393,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22544,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216.2807106333814</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -22559,13 +22561,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G2" t="n">
-        <v>411.9429466803539</v>
+        <v>252.990711380898</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22594,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22641,10 +22643,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22674,13 +22676,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>77.7676814521092</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>208.8778621094304</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22747,16 +22749,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>63.70773940111971</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>101.8597073339676</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -22787,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -22829,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>202.3772089516234</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>225.4424436438509</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22863,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>57.60636999204344</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22878,7 +22880,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22914,7 +22916,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>145.4661439089489</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22948,13 +22950,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>21.89883815750534</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>376.0255221698495</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>43.87163827606969</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23106,19 +23108,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23200,7 +23202,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,16 +23223,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>101.8597073339676</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -23239,13 +23241,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>264.7675975574945</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -23270,13 +23272,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9429466803539</v>
+        <v>315.987862861628</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23321,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>171.2791036629602</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23428,13 +23430,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2305511458285</v>
+        <v>38.64046520703948</v>
       </c>
       <c r="H13" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>83.10475827069664</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
         <v>219.8148072196457</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>43.87163827606969</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>401.2389786565786</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>185.3566856159496</v>
@@ -23571,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>68.32860979320854</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23583,16 +23585,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>128.1389637540455</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23637,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="16">
@@ -23656,22 +23658,22 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2305511458285</v>
+        <v>0.4884972741916158</v>
       </c>
       <c r="H16" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X16" t="n">
-        <v>63.68805120688319</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
         <v>219.8148072196457</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>378.1144210805207</v>
@@ -23738,10 +23740,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
-        <v>204.3103691972039</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
         <v>411.9429466803539</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>64.17826172444543</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -23865,7 +23867,7 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>57.60636999204326</v>
+        <v>116.7927962080469</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.40099082689014</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23938,16 +23940,16 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
@@ -23978,7 +23980,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>159.351835591142</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>48.65683540261281</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24057,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>95.69231349987228</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>51.75444384776114</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I22" t="n">
         <v>142.7610139533483</v>
@@ -24172,10 +24174,10 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>62.42773816504081</v>
+        <v>134.305348269417</v>
       </c>
       <c r="T22" t="n">
         <v>230.8471636524779</v>
@@ -24193,7 +24195,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>196.6322408888854</v>
       </c>
       <c r="I23" t="n">
         <v>171.0890268032919</v>
@@ -24260,19 +24262,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
-        <v>105.2125197358309</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y23" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24294,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>67.18957740169296</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -24339,13 +24341,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>12.44103031728636</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>39.92099241523323</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>64.72980006493482</v>
       </c>
       <c r="G25" t="n">
         <v>167.2305511458285</v>
@@ -24406,13 +24408,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>230.8471636524779</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>280.3135517356093</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
         <v>329.4930616586638</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>9.902161714297108</v>
       </c>
       <c r="S26" t="n">
         <v>185.3566856159496</v>
@@ -24503,13 +24505,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24528,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>57.6063699920433</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.2305511458285</v>
@@ -24655,7 +24657,7 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U28" t="n">
-        <v>15.70763571947987</v>
+        <v>166.6634841439603</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24680,7 +24682,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
@@ -24695,7 +24697,7 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>177.4328890868196</v>
       </c>
       <c r="I29" t="n">
         <v>171.0890268032919</v>
@@ -24728,10 +24730,10 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>81.54720002385497</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -24774,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>16.61952429942338</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24813,10 +24815,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>28.09477831004497</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>42.71577926664513</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
@@ -24883,13 +24885,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>211.5726649703493</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="T31" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>284.3183371157911</v>
@@ -24904,7 +24906,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>196.9937558739958</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,7 +24973,7 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>65.31426955627845</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24980,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -24999,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>23.33413416886206</v>
       </c>
       <c r="S33" t="n">
-        <v>101.597958592548</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8471636524779</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="U34" t="n">
-        <v>40.87452179009284</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25154,16 +25156,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>411.9429466803539</v>
@@ -25172,7 +25174,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>39.34803530031869</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25211,13 +25213,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>159.7870878735606</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -25242,16 +25244,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>101.5979585925484</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,19 +25280,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>51.75444384776114</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25318,16 +25320,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.7789187685189</v>
+        <v>99.71558964164953</v>
       </c>
       <c r="I37" t="n">
         <v>142.7610139533483</v>
@@ -25357,7 +25359,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
         <v>211.5726649703493</v>
@@ -25369,7 +25371,7 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
@@ -25378,7 +25380,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.23066939509975</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
         <v>410.0096787829314</v>
@@ -25406,10 +25408,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
-        <v>265.2251272711987</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T38" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>121.4107705763607</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25488,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>57.6063699920433</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>186.7982527956746</v>
@@ -25527,10 +25529,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>41.95262199928464</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>42.71577926664513</v>
       </c>
       <c r="D40" t="n">
-        <v>93.47784511364551</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
         <v>157.7789187685189</v>
@@ -25615,7 +25617,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>311.5070750174734</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
@@ -25682,19 +25684,19 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>100.3038460653903</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>56.62421543484612</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>106.4411796807436</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25801,7 +25803,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H43" t="n">
-        <v>100.7408823425567</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I43" t="n">
         <v>142.7610139533483</v>
@@ -25834,13 +25836,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H44" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I44" t="n">
-        <v>43.72352156522331</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>105.5269436911415</v>
       </c>
       <c r="T44" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -25928,10 +25930,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25956,10 +25958,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25989,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>228.4828472653914</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26035,16 +26037,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4884972741916584</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26077,16 +26079,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>244.6475751830577</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>642384.0212090604</v>
+        <v>642384.0212090602</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>642384.0212090602</v>
+        <v>642384.0212090601</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>642384.02120906</v>
+        <v>642384.0212090601</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>642384.02120906</v>
+        <v>642384.0212090602</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>642384.0212090604</v>
+        <v>642384.0212090601</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>642384.0212090601</v>
+        <v>642384.0212090602</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>642384.0212090602</v>
+        <v>642384.0212090601</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>642384.0212090604</v>
+        <v>642384.0212090602</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>642384.0212090602</v>
+        <v>642384.0212090604</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>642384.0212090601</v>
+        <v>642384.0212090602</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>642384.0212090601</v>
+        <v>642384.0212090602</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>642384.0212090604</v>
+        <v>642384.0212090601</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>154994.1683618826</v>
+      </c>
+      <c r="C2" t="n">
         <v>154994.1683618825</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>154994.1683618826</v>
       </c>
-      <c r="D2" t="n">
-        <v>154994.1683618825</v>
-      </c>
       <c r="E2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
       <c r="F2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
       <c r="G2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
       <c r="H2" t="n">
         <v>154994.1683618825</v>
       </c>
       <c r="I2" t="n">
+        <v>154994.1683618826</v>
+      </c>
+      <c r="J2" t="n">
+        <v>154994.1683618826</v>
+      </c>
+      <c r="K2" t="n">
+        <v>154994.1683618826</v>
+      </c>
+      <c r="L2" t="n">
         <v>154994.1683618825</v>
       </c>
-      <c r="J2" t="n">
-        <v>154994.1683618825</v>
-      </c>
-      <c r="K2" t="n">
-        <v>154994.1683618825</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>154994.1683618826</v>
-      </c>
-      <c r="M2" t="n">
-        <v>154994.1683618825</v>
       </c>
       <c r="N2" t="n">
         <v>154994.1683618826</v>
       </c>
       <c r="O2" t="n">
-        <v>154994.1683618825</v>
+        <v>154994.1683618826</v>
       </c>
       <c r="P2" t="n">
         <v>154994.1683618825</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109420.3842462971</v>
+        <v>-109420.384246297</v>
       </c>
       <c r="C6" t="n">
-        <v>66620.80047123035</v>
+        <v>66620.80047123029</v>
       </c>
       <c r="D6" t="n">
-        <v>66620.80047123024</v>
+        <v>66620.80047123032</v>
       </c>
       <c r="E6" t="n">
-        <v>100248.4004712302</v>
+        <v>100248.4004712303</v>
       </c>
       <c r="F6" t="n">
-        <v>100248.4004712302</v>
+        <v>100248.4004712303</v>
       </c>
       <c r="G6" t="n">
         <v>100248.4004712303</v>
@@ -26543,19 +26545,19 @@
         <v>100248.4004712303</v>
       </c>
       <c r="J6" t="n">
-        <v>-37194.03032054685</v>
+        <v>-37194.03032054674</v>
       </c>
       <c r="K6" t="n">
+        <v>100248.4004712304</v>
+      </c>
+      <c r="L6" t="n">
         <v>100248.4004712303</v>
-      </c>
-      <c r="L6" t="n">
-        <v>100248.4004712304</v>
       </c>
       <c r="M6" t="n">
         <v>100248.4004712303</v>
       </c>
       <c r="N6" t="n">
-        <v>100248.4004712303</v>
+        <v>100248.4004712304</v>
       </c>
       <c r="O6" t="n">
         <v>100248.4004712303</v>
@@ -34696,13 +34698,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K2" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L2" t="n">
-        <v>351.3993667524705</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M2" t="n">
         <v>397.2112790435232</v>
@@ -34778,7 +34780,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>87.71916873984493</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
@@ -34790,13 +34792,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O3" t="n">
-        <v>396.1615664486372</v>
+        <v>106.2899856427332</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34954,7 +34956,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N9" t="n">
-        <v>463.3546486099329</v>
+        <v>226.5583647730072</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>72.72580229576329</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K11" t="n">
         <v>242.5660323684674</v>
@@ -35419,7 +35421,7 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633487</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O11" t="n">
         <v>308.0854388614484</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M12" t="n">
-        <v>489.93268031336</v>
+        <v>260.9238737833207</v>
       </c>
       <c r="N12" t="n">
-        <v>436.7100974846449</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
@@ -35507,7 +35509,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35735,16 +35737,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P15" t="n">
-        <v>305.147393207775</v>
+        <v>15.27581240187084</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
         <v>242.5660323684674</v>
@@ -35966,13 +35968,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L18" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>101.5585911716093</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>516.4299455789112</v>
+        <v>497.5728717605097</v>
       </c>
       <c r="O18" t="n">
         <v>396.1615664486372</v>
@@ -36139,7 +36141,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>87.71916873984493</v>
       </c>
       <c r="L21" t="n">
         <v>369.5170153233491</v>
@@ -36215,10 +36217,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P21" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.799832419646239</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
@@ -36449,10 +36451,10 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O24" t="n">
-        <v>252.0720962387968</v>
+        <v>178.7333419807071</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36613,7 +36615,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q26" t="n">
-        <v>95.38611483488586</v>
+        <v>95.38611483488566</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L27" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M27" t="n">
-        <v>431.8697384571415</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N27" t="n">
         <v>516.4299455789112</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L30" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M30" t="n">
         <v>489.93268031336</v>
@@ -36929,7 +36931,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M33" t="n">
         <v>489.93268031336</v>
@@ -37166,7 +37168,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L36" t="n">
-        <v>152.0887908554191</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M36" t="n">
         <v>489.93268031336</v>
@@ -37403,7 +37405,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L39" t="n">
         <v>369.5170153233491</v>
@@ -37637,7 +37639,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P39" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717706</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q41" t="n">
         <v>95.38611483488586</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M42" t="n">
         <v>489.93268031336</v>
@@ -37874,10 +37876,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P42" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q42" t="n">
-        <v>79.64543451744501</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5660323684671</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
         <v>351.3993667524709</v>
@@ -38096,13 +38098,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L45" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M45" t="n">
-        <v>489.93268031336</v>
+        <v>40.69581689574456</v>
       </c>
       <c r="N45" t="n">
         <v>516.4299455789112</v>
@@ -38111,10 +38113,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P45" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
